--- a/Data/Costs/Parameters needed for Thalassaemia model.xlsx
+++ b/Data/Costs/Parameters needed for Thalassaemia model.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwongnak/Project/Econ_model_Thalassaemia/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pwongnak/Project/Econ_model_Thalassaemia/Data/Costs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A070D79-89EC-1642-9910-9D210FF56C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0E19B0-F491-B34A-8E7B-C30F64D1418F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="27700" windowHeight="16360" xr2:uid="{D0E166B2-A471-D846-8B51-F15AF6A1B35B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="59">
   <si>
     <t>NAME</t>
   </si>
@@ -195,13 +195,31 @@
   </si>
   <si>
     <t>This should be from literatures, i.e, allele frequencies</t>
+  </si>
+  <si>
+    <t>CBC (+ diff. + RBC morphology + plt count) by automation </t>
+  </si>
+  <si>
+    <t>121.00 </t>
+  </si>
+  <si>
+    <t>CBC (+ diff. + RBC morphology, platelet smear) - Manual </t>
+  </si>
+  <si>
+    <t>81.00 </t>
+  </si>
+  <si>
+    <t>HITAP</t>
+  </si>
+  <si>
+    <t>https://costingmenu.hitap.net/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -248,6 +266,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0055AA"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -269,7 +293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -283,8 +307,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -619,16 +649,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187148DD-9D30-9543-B0F7-1C641421C9F1}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="46" customWidth="1"/>
+    <col min="2" max="2" width="46" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.1640625" customWidth="1"/>
     <col min="5" max="5" width="18.83203125" customWidth="1"/>
@@ -636,11 +666,11 @@
     <col min="7" max="7" width="64.6640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -659,19 +689,19 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C3" s="4">
@@ -687,8 +717,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="B4" s="4" t="s">
+    <row r="4" spans="1:9" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B4" s="5" t="s">
         <v>45</v>
       </c>
       <c r="C4" s="4">
@@ -701,8 +731,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="B5" s="4" t="s">
+    <row r="5" spans="1:9" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B5" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C5" s="4">
@@ -715,8 +745,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="B6" s="4" t="s">
+    <row r="6" spans="1:9" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B6" s="5" t="s">
         <v>47</v>
       </c>
       <c r="C6" s="4">
@@ -732,8 +762,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:9" s="4" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="4">
@@ -746,151 +776,166 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="B8" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="B9" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9"/>
+    </row>
+    <row r="10" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+    <row r="13" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C14" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+    <row r="16" spans="1:9" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="85" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>0.4</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="D17" t="s">
-        <v>38</v>
+        <v>14</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>0.4</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="85" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>0.67</v>
+        <v>15</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>42</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="85" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19">
+        <v>0.67</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="1" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="17" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>0.5</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>32</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="C20">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>37</v>
@@ -898,15 +943,29 @@
     </row>
     <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21">
+        <v>0.25</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>0.5</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>36</v>
       </c>
     </row>
